--- a/DDAf_2025_Tableau_annexe_Sources.xlsx
+++ b/DDAf_2025_Tableau_annexe_Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E78431F-CD08-4FF1-95DC-58E19AA8BF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3796843F-17B8-4513-966A-B73FE6558934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{6BB99689-97E6-4611-8466-52B5DD3926B0}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{6AB7D08D-6E16-4D88-86C0-3CDBE1C79DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="143">
   <si>
     <t>List of sources</t>
   </si>
@@ -86,6 +86,18 @@
     <t>https://data360.worldbank.org/en/dataset/WB_CWON</t>
   </si>
   <si>
+    <t>EDGAR Community GHG Database</t>
+  </si>
+  <si>
+    <t>European Commission, Joint Research Centre (JRC) and the International Energy Agency (IEA)</t>
+  </si>
+  <si>
+    <t>2025 Edition</t>
+  </si>
+  <si>
+    <t>https://edgar.jrc.ec.europa.eu/report_2025</t>
+  </si>
+  <si>
     <t>ESCAP-World Bank Trade Cost Database</t>
   </si>
   <si>
@@ -158,31 +170,49 @@
     <t>www.gsmaintelligence.com/data/</t>
   </si>
   <si>
-    <t>IMF Balance of Paytments and International Investment Position Statistics (IMF/IIP)</t>
+    <t>IMF Balance of Payments (BOP) Dataset</t>
   </si>
   <si>
     <t>International Monetary Fund (IMF)</t>
   </si>
   <si>
-    <t>Publication date 12/09/2025</t>
-  </si>
-  <si>
-    <t>https://data.imf.org/en/Search-Results#q=icsd&amp;t=coveob02de888&amp;sort=relevancy</t>
-  </si>
-  <si>
-    <t>IMF Investment and Capital Stock (ICSD)</t>
+    <t>Accessed on 27/10/2025</t>
+  </si>
+  <si>
+    <t>https://data.imf.org/en/datasets/IMF.STA:BOP</t>
+  </si>
+  <si>
+    <t>IMF Balance of Payments and International Investment Position Statistics (BOP/IIP)</t>
+  </si>
+  <si>
+    <t>Accessed on 02/10/2025</t>
+  </si>
+  <si>
+    <t>https://data.imf.org/en/datasets/IMF.STA:BOP_AGG</t>
+  </si>
+  <si>
+    <t>IMF International Investment Position (IIP) Dataset</t>
+  </si>
+  <si>
+    <t>Accessed on 28/10/2025</t>
+  </si>
+  <si>
+    <t>https://data.imf.org/en/datasets/IMF.STA:IIP</t>
+  </si>
+  <si>
+    <t>IMF Investment and Capital Stock (ICSD) Dataset</t>
   </si>
   <si>
     <t>Updated 27/10/2023</t>
   </si>
   <si>
-    <t>https://data.imf.org/?sk=1CE8A55F-CFA7-4BC0-BCE2-256EE65AC0E4</t>
+    <t>https://data.imf.org/en/datasets/IMF.FAD:ICSD</t>
   </si>
   <si>
     <t>IMF World Economic Outlook Database</t>
   </si>
   <si>
-    <t>April 2024</t>
+    <t>October 2025</t>
   </si>
   <si>
     <t>www.imf.org/en/Publications/WEO/weo-database/2024/April</t>
@@ -353,13 +383,13 @@
     <t>https://dataexplorer.wittgensteincentre.org/wcde-v3/</t>
   </si>
   <si>
-    <t>World Bank Enterprise Survey Microdata</t>
-  </si>
-  <si>
-    <t>Retrieved April 2020</t>
-  </si>
-  <si>
-    <t>https://microdata.worldbank.org/index.php/catalog/enterprise_surveys/about</t>
+    <t>World Bank Enterprise Survey</t>
+  </si>
+  <si>
+    <t>Retrieved 19/09/2025</t>
+  </si>
+  <si>
+    <t>https://www.enterprisesurveys.org/en/data</t>
   </si>
   <si>
     <t>World Bank Global Bilateral Migration Matrix (WBGBMM)</t>
@@ -557,7 +587,7 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{1E6C6332-DCFE-4D78-91EE-0DA399558B67}"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{A70095EE-081A-497D-868A-512000DF170F}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -728,7 +758,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{7669A076-EBC3-405E-A685-A2BB611CAFBE}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{001A36D4-B4B7-4900-91C1-B6277B02A4FC}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -746,12 +776,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CDF2C76C-3F1A-48FE-834C-131498A0AF88}" name="Table363" displayName="Table363" ref="B2:E37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{837DEDF7-9F17-4933-A8D3-81282638B430}" name="Table363" displayName="Table363" ref="B2:E40" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{7F22DCB6-6657-42F1-A0F6-7A8ACFC18FE0}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{4BE34748-5B64-4301-A339-3E27DBE4F8FC}" name="Organisation" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{AB090489-C392-413A-A3A8-25D26C4CA864}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" xr3:uid="{8D1CDB3C-CD82-4328-867D-59AD5B3BB21C}" name="URL" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{700EF989-2533-4C81-A5CD-2D473439AE66}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{1555A4B4-7B90-446C-A7CA-843957DDD8A8}" name="Organisation" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{92F50C26-CBDF-426F-8552-ACC3872A5798}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{5F1C5E0E-5D2B-4817-AC00-ACBB105F9B6B}" name="URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1019,23 +1049,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BEA26B4-3530-4A7C-BF18-53807059F282}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62F9E6A-9110-4402-B76A-991AB37065FA}">
   <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1043,7 +1073,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -1058,7 +1088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="6" t="s">
         <v>5</v>
@@ -1073,7 +1103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="6" t="s">
         <v>9</v>
@@ -1088,7 +1118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="6" t="s">
         <v>13</v>
@@ -1103,7 +1133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="6" t="s">
         <v>17</v>
@@ -1118,7 +1148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="6" t="s">
         <v>21</v>
@@ -1133,7 +1163,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="6" t="s">
         <v>25</v>
@@ -1148,7 +1178,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
         <v>29</v>
@@ -1163,7 +1193,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
         <v>33</v>
@@ -1178,7 +1208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
         <v>37</v>
@@ -1193,7 +1223,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="6" t="s">
         <v>41</v>
@@ -1208,43 +1238,43 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>53</v>
@@ -1253,112 +1283,112 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="6" t="s">
+    </row>
+    <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="7" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="7" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="7" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="7" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="D22" s="7">
-        <v>2020</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="6" t="s">
         <v>81</v>
@@ -1373,13 +1403,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
         <v>85</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>86</v>
@@ -1388,7 +1418,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
         <v>88</v>
@@ -1396,20 +1426,20 @@
       <c r="C25" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="7">
+        <v>2020</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>93</v>
@@ -1418,22 +1448,22 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
         <v>98</v>
@@ -1448,43 +1478,43 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="6" t="s">
         <v>102</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="D30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>110</v>
@@ -1493,58 +1523,58 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>123</v>
@@ -1553,290 +1583,326 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="6" t="s">
         <v>125</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E36" s="6" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="4"/>
+      <c r="B37" s="6" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="9" t="s">
+      <c r="C37" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="7">
-        <v>2018</v>
+      <c r="D37" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
-      <c r="B39" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="7">
+        <v>2018</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
-      <c r="B41" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="4"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="4"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="4"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B41" r:id="rId1" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{48362B5C-5CE5-4053-B9F6-1A386DF921DE}"/>
-    <hyperlink ref="B39" r:id="rId2" xr:uid="{66F70771-95D3-4A8D-886F-97F1C95A0176}"/>
+    <hyperlink ref="B44" r:id="rId1" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{615E9A07-406A-41D4-B567-BE3051029E42}"/>
+    <hyperlink ref="B42" r:id="rId2" xr:uid="{64FB0D4E-43F6-4F56-A234-3193EF0320EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
